--- a/Results/MAE_results.xlsx
+++ b/Results/MAE_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avijitmajhi/Desktop/radar_nowcasting/Results/backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geosciences_Project\Nowcasting_OF\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11E3EDD-F192-844F-B234-9BFBE6A33BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA90DFE6-A53A-4B1B-831B-A8DFAFA752C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="0" windowWidth="17420" windowHeight="18000" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10005" yWindow="2370" windowWidth="28800" windowHeight="15345" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LK_persistence" sheetId="7" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="proesmans_extrapolation" sheetId="11" r:id="rId10"/>
     <sheet name="proesmans_sprog" sheetId="12" r:id="rId11"/>
     <sheet name="proesmans_anvil" sheetId="13" r:id="rId12"/>
+    <sheet name="VET_persistence" sheetId="14" r:id="rId13"/>
+    <sheet name="VET_extrapolation" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="19">
   <si>
     <t>Event</t>
   </si>
@@ -94,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +109,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,9 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -457,9 +467,9 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -505,7 +515,7 @@
         <v>0.16409101931762449</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -528,7 +538,7 @@
         <v>3.782436419408485</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -551,7 +561,7 @@
         <v>0.1811730361559942</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -574,7 +584,7 @@
         <v>0.13623532815140549</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -597,7 +607,7 @@
         <v>0.44982570696938018</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -620,7 +630,7 @@
         <v>0.29355704340687222</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -643,7 +653,7 @@
         <v>0.15929201541795779</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -666,7 +676,7 @@
         <v>0.15131245666838691</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -689,7 +699,7 @@
         <v>6.7493813184186041E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -712,7 +722,7 @@
         <v>0.92998444516056111</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -735,7 +745,7 @@
         <v>1.965836376779575</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -771,9 +781,9 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -819,7 +829,7 @@
         <v>0.14625520782783941</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -842,7 +852,7 @@
         <v>0.1142399065108282</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -865,7 +875,7 @@
         <v>0.12907339119840119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -888,7 +898,7 @@
         <v>0.79276032770281935</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -911,7 +921,7 @@
         <v>0.26311523491096311</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -934,7 +944,7 @@
         <v>1.770955940963483</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -957,7 +967,7 @@
         <v>0.13433944913070309</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -980,7 +990,7 @@
         <v>0.1112720570541768</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>0.34282539288826752</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1036,7 @@
         <v>0.15348298775079799</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1049,7 +1059,7 @@
         <v>5.9740666519735759E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1085,9 +1095,9 @@
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1133,7 +1143,7 @@
         <v>0.14981910111525551</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +1166,7 @@
         <v>0.114638965253861</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>0.13065148597533699</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>0.77672907032123628</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1225,7 +1235,7 @@
         <v>0.28143697268823142</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1248,7 +1258,7 @@
         <v>1.7339249838910009</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1281,7 @@
         <v>0.1377656004803402</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1304,7 @@
         <v>0.11526701715693929</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1327,7 @@
         <v>0.32826513824052878</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>0.14906042844729489</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1363,7 +1373,7 @@
         <v>6.1159331712290203E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1395,13 +1405,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32ED14C-3F29-3F48-BE5A-AC445508CCAB}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1447,7 +1457,7 @@
         <v>0.1614163879513392</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1480,7 @@
         <v>0.1260094034587243</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1493,7 +1503,7 @@
         <v>0.16524781594104529</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +1526,7 @@
         <v>1.206563933786821</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1539,7 +1549,7 @@
         <v>0.40682739601626589</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1572,7 @@
         <v>2.7231672286791451</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1595,7 @@
         <v>0.15714825468753149</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1608,7 +1618,7 @@
         <v>0.13705745599756469</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1631,7 +1641,7 @@
         <v>0.46808913111334899</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1654,7 +1664,7 @@
         <v>0.25208028309039571</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1677,7 +1687,7 @@
         <v>7.1885157738025202E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1702,6 +1712,630 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99630B75-D67D-4CA1-B8AB-5AA88D802EF2}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0.1093417941395427</v>
+      </c>
+      <c r="C2">
+        <v>0.14222355786868809</v>
+      </c>
+      <c r="D2">
+        <v>0.15801002784225149</v>
+      </c>
+      <c r="E2">
+        <v>0.16965018884312891</v>
+      </c>
+      <c r="F2">
+        <v>0.17830929515869909</v>
+      </c>
+      <c r="G2">
+        <v>0.18457944185765851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>8.9383744817873784E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.1213976531881588</v>
+      </c>
+      <c r="D3">
+        <v>0.1384881897847427</v>
+      </c>
+      <c r="E3">
+        <v>0.14976766349115139</v>
+      </c>
+      <c r="F3">
+        <v>0.1579584453755801</v>
+      </c>
+      <c r="G3">
+        <v>0.16409101931762449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.14349619854771259</v>
+      </c>
+      <c r="C4">
+        <v>0.1486672312352991</v>
+      </c>
+      <c r="D4">
+        <v>0.1468072376199161</v>
+      </c>
+      <c r="E4">
+        <v>0.1436444739009787</v>
+      </c>
+      <c r="F4">
+        <v>0.1379804444130428</v>
+      </c>
+      <c r="G4">
+        <v>0.13623532815140549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.62705033708427094</v>
+      </c>
+      <c r="C5">
+        <v>0.77769100920172141</v>
+      </c>
+      <c r="D5">
+        <v>0.85315357485029975</v>
+      </c>
+      <c r="E5">
+        <v>0.89594382561202379</v>
+      </c>
+      <c r="F5">
+        <v>0.91973496241805364</v>
+      </c>
+      <c r="G5">
+        <v>0.92998444516056111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.28856055506356321</v>
+      </c>
+      <c r="C6">
+        <v>0.28261419398977128</v>
+      </c>
+      <c r="D6">
+        <v>0.28631599365266741</v>
+      </c>
+      <c r="E6">
+        <v>0.28183186357125001</v>
+      </c>
+      <c r="F6">
+        <v>0.28381551123303</v>
+      </c>
+      <c r="G6">
+        <v>0.29355704340687222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1.1391007590020079</v>
+      </c>
+      <c r="C7">
+        <v>1.544924529805995</v>
+      </c>
+      <c r="D7">
+        <v>1.7517193610172239</v>
+      </c>
+      <c r="E7">
+        <v>1.8681238748736471</v>
+      </c>
+      <c r="F7">
+        <v>1.936648119795648</v>
+      </c>
+      <c r="G7">
+        <v>1.965836376779575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.15347895665286729</v>
+      </c>
+      <c r="C8">
+        <v>0.17396842408641791</v>
+      </c>
+      <c r="D8">
+        <v>0.1795493887662763</v>
+      </c>
+      <c r="E8">
+        <v>0.1832357416743266</v>
+      </c>
+      <c r="F8">
+        <v>0.18036340927272049</v>
+      </c>
+      <c r="G8">
+        <v>0.1811730361559942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.12714267696041601</v>
+      </c>
+      <c r="C9">
+        <v>0.15467071207716759</v>
+      </c>
+      <c r="D9">
+        <v>0.14824028500771269</v>
+      </c>
+      <c r="E9">
+        <v>0.14311314727084751</v>
+      </c>
+      <c r="F9">
+        <v>0.1464842130220288</v>
+      </c>
+      <c r="G9">
+        <v>0.15131245666838691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.2679306195213278</v>
+      </c>
+      <c r="C10">
+        <v>0.34117741846858352</v>
+      </c>
+      <c r="D10">
+        <v>0.37595133209369669</v>
+      </c>
+      <c r="E10">
+        <v>0.40741503767713771</v>
+      </c>
+      <c r="F10">
+        <v>0.43335559780736288</v>
+      </c>
+      <c r="G10">
+        <v>0.44982570696938018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.14794309867913441</v>
+      </c>
+      <c r="C11">
+        <v>0.1585449592400644</v>
+      </c>
+      <c r="D11">
+        <v>0.1590537357547557</v>
+      </c>
+      <c r="E11">
+        <v>0.15911507679094211</v>
+      </c>
+      <c r="F11">
+        <v>0.1605507893470518</v>
+      </c>
+      <c r="G11">
+        <v>0.15929201541795779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>3.9289593368064743E-2</v>
+      </c>
+      <c r="C12">
+        <v>5.148791094741352E-2</v>
+      </c>
+      <c r="D12">
+        <v>5.9545184691728217E-2</v>
+      </c>
+      <c r="E12">
+        <v>6.4132073702365233E-2</v>
+      </c>
+      <c r="F12">
+        <v>6.644363645283724E-2</v>
+      </c>
+      <c r="G12">
+        <v>6.7493813184186041E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>2.6818337324741641</v>
+      </c>
+      <c r="C13">
+        <v>3.312149919344368</v>
+      </c>
+      <c r="D13">
+        <v>3.5536470993431819</v>
+      </c>
+      <c r="E13">
+        <v>3.6934733795820311</v>
+      </c>
+      <c r="F13">
+        <v>3.7631099364032421</v>
+      </c>
+      <c r="G13">
+        <v>3.782436419408485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34764994-B434-43B9-A1D6-7EF1C30798C4}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>7.2248601410728738E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.1077421647809837</v>
+      </c>
+      <c r="D2">
+        <v>0.1326907574350096</v>
+      </c>
+      <c r="E2">
+        <v>0.1533659477448128</v>
+      </c>
+      <c r="F2">
+        <v>0.17097806205198199</v>
+      </c>
+      <c r="G2">
+        <v>0.18596631786870849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>5.4729302274071918E-2</v>
+      </c>
+      <c r="C3">
+        <v>8.2272740464693447E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.1023754027054072</v>
+      </c>
+      <c r="E3">
+        <v>0.1187219453815359</v>
+      </c>
+      <c r="F3">
+        <v>0.13372162053131781</v>
+      </c>
+      <c r="G3">
+        <v>0.14723232477136541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.15520230839188179</v>
+      </c>
+      <c r="C4">
+        <v>0.19775071311360051</v>
+      </c>
+      <c r="D4">
+        <v>0.14162666436798979</v>
+      </c>
+      <c r="E4">
+        <v>0.18079457013762251</v>
+      </c>
+      <c r="F4">
+        <v>0.18228570471910949</v>
+      </c>
+      <c r="G4">
+        <v>0.20095360582903449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.54178500361030324</v>
+      </c>
+      <c r="C5">
+        <v>0.77450528464405555</v>
+      </c>
+      <c r="D5">
+        <v>0.92326472194882037</v>
+      </c>
+      <c r="E5">
+        <v>1.030046949780848</v>
+      </c>
+      <c r="F5">
+        <v>1.104603656689586</v>
+      </c>
+      <c r="G5">
+        <v>1.1517878904351451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.28117932300678727</v>
+      </c>
+      <c r="C6">
+        <v>0.3038213660094049</v>
+      </c>
+      <c r="D6">
+        <v>0.29155030490730499</v>
+      </c>
+      <c r="E6">
+        <v>0.26633476133093831</v>
+      </c>
+      <c r="F6">
+        <v>0.25431757930790738</v>
+      </c>
+      <c r="G6">
+        <v>0.1797641632760644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1.0219523177301051</v>
+      </c>
+      <c r="C7">
+        <v>1.495120945455747</v>
+      </c>
+      <c r="D7">
+        <v>1.7764108756864561</v>
+      </c>
+      <c r="E7">
+        <v>1.9644666916128981</v>
+      </c>
+      <c r="F7">
+        <v>2.1330018762000811</v>
+      </c>
+      <c r="G7">
+        <v>2.2647382398480582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.1051869864806684</v>
+      </c>
+      <c r="C8">
+        <v>0.1527935918909292</v>
+      </c>
+      <c r="D8">
+        <v>0.18481116523437149</v>
+      </c>
+      <c r="E8">
+        <v>0.20742773676623669</v>
+      </c>
+      <c r="F8">
+        <v>0.22256232256211411</v>
+      </c>
+      <c r="G8">
+        <v>0.22992672790789589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>9.8245351551857332E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.15201673963283141</v>
+      </c>
+      <c r="D9">
+        <v>0.1872774002338165</v>
+      </c>
+      <c r="E9">
+        <v>0.20455651076824949</v>
+      </c>
+      <c r="F9">
+        <v>0.22213365277678501</v>
+      </c>
+      <c r="G9">
+        <v>0.22976503803190729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.210682903068767</v>
+      </c>
+      <c r="C10">
+        <v>0.31256785810953752</v>
+      </c>
+      <c r="D10">
+        <v>0.37461898438198682</v>
+      </c>
+      <c r="E10">
+        <v>0.42141319356573531</v>
+      </c>
+      <c r="F10">
+        <v>0.45676677768148233</v>
+      </c>
+      <c r="G10">
+        <v>0.48166405857396638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.13121265882287039</v>
+      </c>
+      <c r="C11">
+        <v>0.15206882788484</v>
+      </c>
+      <c r="D11">
+        <v>0.1761266715043622</v>
+      </c>
+      <c r="E11">
+        <v>0.1877291704750505</v>
+      </c>
+      <c r="F11">
+        <v>0.1897271941203367</v>
+      </c>
+      <c r="G11">
+        <v>0.17180396560569261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>3.4066695701907831E-2</v>
+      </c>
+      <c r="C12">
+        <v>5.2534501406709858E-2</v>
+      </c>
+      <c r="D12">
+        <v>6.6752686723907842E-2</v>
+      </c>
+      <c r="E12">
+        <v>7.9163099528389416E-2</v>
+      </c>
+      <c r="F12">
+        <v>8.9063589426906037E-2</v>
+      </c>
+      <c r="G12">
+        <v>9.6804577793057733E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>2.31901243164</v>
+      </c>
+      <c r="C13">
+        <v>3.2121306330270718</v>
+      </c>
+      <c r="D13">
+        <v>3.6860239096763441</v>
+      </c>
+      <c r="E13">
+        <v>4.0335337658123587</v>
+      </c>
+      <c r="F13">
+        <v>4.3297292995232404</v>
+      </c>
+      <c r="G13">
+        <v>4.5626489211574048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1713,9 +2347,9 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +2372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1761,7 +2395,7 @@
         <v>0.14695339406353289</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1784,7 +2418,7 @@
         <v>4.3604195079397536</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1807,7 +2441,7 @@
         <v>0.19632635665305839</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1830,7 +2464,7 @@
         <v>0.133653977726408</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1853,7 +2487,7 @@
         <v>0.4491202962558844</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1876,7 +2510,7 @@
         <v>0.43573882812762149</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1899,7 +2533,7 @@
         <v>0.1613725903491974</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1922,7 +2556,7 @@
         <v>0.18846201684125891</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1945,7 +2579,7 @@
         <v>8.7752800511971443E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +2602,7 @@
         <v>0.98972533378003347</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1991,7 +2625,7 @@
         <v>2.063787964707414</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2025,9 +2659,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2707,7 @@
         <v>0.96120747206044044</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2730,7 @@
         <v>4.2915625294005242</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2119,7 +2753,7 @@
         <v>0.14313110851595129</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2142,7 +2776,7 @@
         <v>0.43634974108462671</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2165,7 +2799,7 @@
         <v>0.19215840156493261</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2188,7 +2822,7 @@
         <v>0.12801620525985491</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2211,7 +2845,7 @@
         <v>0.15302594326071919</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2234,7 +2868,7 @@
         <v>2.0030123283045449</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2257,7 +2891,7 @@
         <v>9.0319090356278678E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2280,7 +2914,7 @@
         <v>0.19354146830167049</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2303,7 +2937,7 @@
         <v>0.43099433941790932</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2337,9 +2971,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2385,7 +3019,7 @@
         <v>1.6996321172799029</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2408,7 +3042,7 @@
         <v>5.8733766018002029</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2431,7 +3065,7 @@
         <v>0.18334999579731229</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2454,7 +3088,7 @@
         <v>0.73177957492271262</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2477,7 +3111,7 @@
         <v>0.28583107068280728</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +3134,7 @@
         <v>0.17887182583766531</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2523,7 +3157,7 @@
         <v>0.23228897513935981</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2546,7 +3180,7 @@
         <v>3.3134945350511811</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2569,7 +3203,7 @@
         <v>0.11902835748997311</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2592,7 +3226,7 @@
         <v>0.30899116821409012</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2615,7 +3249,7 @@
         <v>0.72751423507469493</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2649,9 +3283,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2674,7 +3308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2697,7 +3331,7 @@
         <v>0.9280644869425152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2720,7 +3354,7 @@
         <v>3.7918543085700551</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2743,7 +3377,7 @@
         <v>0.17848124258572029</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +3400,7 @@
         <v>0.42361363133808638</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2789,7 +3423,7 @@
         <v>0.16090492980511131</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2812,7 +3446,7 @@
         <v>0.11830315311737979</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2835,7 +3469,7 @@
         <v>0.1754656422733871</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2858,7 +3492,7 @@
         <v>2.074565127564747</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2881,7 +3515,7 @@
         <v>6.5675936723520859E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +3538,7 @@
         <v>0.13595081063605749</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2927,7 +3561,7 @@
         <v>0.28788327650705631</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2961,9 +3595,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +3620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3643,7 @@
         <v>0.92371891416869922</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3666,7 @@
         <v>3.6793994408198931</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3055,7 +3689,7 @@
         <v>0.154478717884171</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3078,7 +3712,7 @@
         <v>0.40179989684803807</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3101,7 +3735,7 @@
         <v>0.15087305097582401</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3124,7 +3758,7 @@
         <v>0.11682647225928899</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3781,7 @@
         <v>0.1737690262736469</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3170,7 +3804,7 @@
         <v>2.069679087274169</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3193,7 +3827,7 @@
         <v>6.5779833701514398E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3216,7 +3850,7 @@
         <v>0.12413831345351049</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3239,7 +3873,7 @@
         <v>0.2901407128434525</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3273,9 +3907,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3321,7 +3955,7 @@
         <v>0.92529732424664712</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3344,7 +3978,7 @@
         <v>3.5260936312006659</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3367,7 +4001,7 @@
         <v>0.14266071578281331</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3390,7 +4024,7 @@
         <v>0.39241274342559118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3413,7 +4047,7 @@
         <v>0.15170294848414151</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3436,7 +4070,7 @@
         <v>0.119475378738449</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +4093,7 @@
         <v>0.17162489582059501</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3482,7 +4116,7 @@
         <v>2.0823635584393512</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3505,7 +4139,7 @@
         <v>6.4800283252728449E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3528,7 +4162,7 @@
         <v>0.12524552807915909</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3551,7 +4185,7 @@
         <v>0.29451824265582538</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3585,9 +4219,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3610,7 +4244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3633,7 +4267,7 @@
         <v>1.3276684596230379</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3656,7 +4290,7 @@
         <v>4.6588548980106497</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3679,7 +4313,7 @@
         <v>0.18007781204487719</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3702,7 +4336,7 @@
         <v>0.57462912966141944</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3725,7 +4359,7 @@
         <v>0.16895693189181779</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3748,7 +4382,7 @@
         <v>0.13626415784554841</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3771,7 +4405,7 @@
         <v>0.22283130376051419</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3794,7 +4428,7 @@
         <v>3.0422209948830119</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3817,7 +4451,7 @@
         <v>8.3856043421905932E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3840,7 +4474,7 @@
         <v>0.17974859089096221</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3863,7 +4497,7 @@
         <v>0.36543577944898348</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3899,9 +4533,9 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3924,7 +4558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3947,7 +4581,7 @@
         <v>0.18457944185765851</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3970,7 +4604,7 @@
         <v>0.16409101931762449</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3993,7 +4627,7 @@
         <v>0.13623532815140549</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4016,7 +4650,7 @@
         <v>0.92998444516056111</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4039,7 +4673,7 @@
         <v>0.29355704340687222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4062,7 +4696,7 @@
         <v>1.965836376779575</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4085,7 +4719,7 @@
         <v>0.1811730361559942</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4108,7 +4742,7 @@
         <v>0.15131245666838691</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4131,7 +4765,7 @@
         <v>0.44982570696938018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4154,7 +4788,7 @@
         <v>0.15929201541795779</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4177,7 +4811,7 @@
         <v>6.7493813184186041E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>

--- a/Results/MAE_results.xlsx
+++ b/Results/MAE_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geosciences_Project\Nowcasting_OF\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA90DFE6-A53A-4B1B-831B-A8DFAFA752C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AE2190-A025-4F9F-8A86-3A742651B50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="2370" windowWidth="28800" windowHeight="15345" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LK_persistence" sheetId="7" r:id="rId1"/>
@@ -25,15 +25,13 @@
     <sheet name="proesmans_extrapolation" sheetId="11" r:id="rId10"/>
     <sheet name="proesmans_sprog" sheetId="12" r:id="rId11"/>
     <sheet name="proesmans_anvil" sheetId="13" r:id="rId12"/>
-    <sheet name="VET_persistence" sheetId="14" r:id="rId13"/>
-    <sheet name="VET_extrapolation" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
   <si>
     <t>Event</t>
   </si>
@@ -96,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,11 +107,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,12 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1405,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32ED14C-3F29-3F48-BE5A-AC445508CCAB}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1712,630 +1702,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99630B75-D67D-4CA1-B8AB-5AA88D802EF2}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>0.1093417941395427</v>
-      </c>
-      <c r="C2">
-        <v>0.14222355786868809</v>
-      </c>
-      <c r="D2">
-        <v>0.15801002784225149</v>
-      </c>
-      <c r="E2">
-        <v>0.16965018884312891</v>
-      </c>
-      <c r="F2">
-        <v>0.17830929515869909</v>
-      </c>
-      <c r="G2">
-        <v>0.18457944185765851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>8.9383744817873784E-2</v>
-      </c>
-      <c r="C3">
-        <v>0.1213976531881588</v>
-      </c>
-      <c r="D3">
-        <v>0.1384881897847427</v>
-      </c>
-      <c r="E3">
-        <v>0.14976766349115139</v>
-      </c>
-      <c r="F3">
-        <v>0.1579584453755801</v>
-      </c>
-      <c r="G3">
-        <v>0.16409101931762449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0.14349619854771259</v>
-      </c>
-      <c r="C4">
-        <v>0.1486672312352991</v>
-      </c>
-      <c r="D4">
-        <v>0.1468072376199161</v>
-      </c>
-      <c r="E4">
-        <v>0.1436444739009787</v>
-      </c>
-      <c r="F4">
-        <v>0.1379804444130428</v>
-      </c>
-      <c r="G4">
-        <v>0.13623532815140549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.62705033708427094</v>
-      </c>
-      <c r="C5">
-        <v>0.77769100920172141</v>
-      </c>
-      <c r="D5">
-        <v>0.85315357485029975</v>
-      </c>
-      <c r="E5">
-        <v>0.89594382561202379</v>
-      </c>
-      <c r="F5">
-        <v>0.91973496241805364</v>
-      </c>
-      <c r="G5">
-        <v>0.92998444516056111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>0.28856055506356321</v>
-      </c>
-      <c r="C6">
-        <v>0.28261419398977128</v>
-      </c>
-      <c r="D6">
-        <v>0.28631599365266741</v>
-      </c>
-      <c r="E6">
-        <v>0.28183186357125001</v>
-      </c>
-      <c r="F6">
-        <v>0.28381551123303</v>
-      </c>
-      <c r="G6">
-        <v>0.29355704340687222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>1.1391007590020079</v>
-      </c>
-      <c r="C7">
-        <v>1.544924529805995</v>
-      </c>
-      <c r="D7">
-        <v>1.7517193610172239</v>
-      </c>
-      <c r="E7">
-        <v>1.8681238748736471</v>
-      </c>
-      <c r="F7">
-        <v>1.936648119795648</v>
-      </c>
-      <c r="G7">
-        <v>1.965836376779575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.15347895665286729</v>
-      </c>
-      <c r="C8">
-        <v>0.17396842408641791</v>
-      </c>
-      <c r="D8">
-        <v>0.1795493887662763</v>
-      </c>
-      <c r="E8">
-        <v>0.1832357416743266</v>
-      </c>
-      <c r="F8">
-        <v>0.18036340927272049</v>
-      </c>
-      <c r="G8">
-        <v>0.1811730361559942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0.12714267696041601</v>
-      </c>
-      <c r="C9">
-        <v>0.15467071207716759</v>
-      </c>
-      <c r="D9">
-        <v>0.14824028500771269</v>
-      </c>
-      <c r="E9">
-        <v>0.14311314727084751</v>
-      </c>
-      <c r="F9">
-        <v>0.1464842130220288</v>
-      </c>
-      <c r="G9">
-        <v>0.15131245666838691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.2679306195213278</v>
-      </c>
-      <c r="C10">
-        <v>0.34117741846858352</v>
-      </c>
-      <c r="D10">
-        <v>0.37595133209369669</v>
-      </c>
-      <c r="E10">
-        <v>0.40741503767713771</v>
-      </c>
-      <c r="F10">
-        <v>0.43335559780736288</v>
-      </c>
-      <c r="G10">
-        <v>0.44982570696938018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.14794309867913441</v>
-      </c>
-      <c r="C11">
-        <v>0.1585449592400644</v>
-      </c>
-      <c r="D11">
-        <v>0.1590537357547557</v>
-      </c>
-      <c r="E11">
-        <v>0.15911507679094211</v>
-      </c>
-      <c r="F11">
-        <v>0.1605507893470518</v>
-      </c>
-      <c r="G11">
-        <v>0.15929201541795779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>3.9289593368064743E-2</v>
-      </c>
-      <c r="C12">
-        <v>5.148791094741352E-2</v>
-      </c>
-      <c r="D12">
-        <v>5.9545184691728217E-2</v>
-      </c>
-      <c r="E12">
-        <v>6.4132073702365233E-2</v>
-      </c>
-      <c r="F12">
-        <v>6.644363645283724E-2</v>
-      </c>
-      <c r="G12">
-        <v>6.7493813184186041E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>2.6818337324741641</v>
-      </c>
-      <c r="C13">
-        <v>3.312149919344368</v>
-      </c>
-      <c r="D13">
-        <v>3.5536470993431819</v>
-      </c>
-      <c r="E13">
-        <v>3.6934733795820311</v>
-      </c>
-      <c r="F13">
-        <v>3.7631099364032421</v>
-      </c>
-      <c r="G13">
-        <v>3.782436419408485</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34764994-B434-43B9-A1D6-7EF1C30798C4}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>7.2248601410728738E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.1077421647809837</v>
-      </c>
-      <c r="D2">
-        <v>0.1326907574350096</v>
-      </c>
-      <c r="E2">
-        <v>0.1533659477448128</v>
-      </c>
-      <c r="F2">
-        <v>0.17097806205198199</v>
-      </c>
-      <c r="G2">
-        <v>0.18596631786870849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>5.4729302274071918E-2</v>
-      </c>
-      <c r="C3">
-        <v>8.2272740464693447E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.1023754027054072</v>
-      </c>
-      <c r="E3">
-        <v>0.1187219453815359</v>
-      </c>
-      <c r="F3">
-        <v>0.13372162053131781</v>
-      </c>
-      <c r="G3">
-        <v>0.14723232477136541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0.15520230839188179</v>
-      </c>
-      <c r="C4">
-        <v>0.19775071311360051</v>
-      </c>
-      <c r="D4">
-        <v>0.14162666436798979</v>
-      </c>
-      <c r="E4">
-        <v>0.18079457013762251</v>
-      </c>
-      <c r="F4">
-        <v>0.18228570471910949</v>
-      </c>
-      <c r="G4">
-        <v>0.20095360582903449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.54178500361030324</v>
-      </c>
-      <c r="C5">
-        <v>0.77450528464405555</v>
-      </c>
-      <c r="D5">
-        <v>0.92326472194882037</v>
-      </c>
-      <c r="E5">
-        <v>1.030046949780848</v>
-      </c>
-      <c r="F5">
-        <v>1.104603656689586</v>
-      </c>
-      <c r="G5">
-        <v>1.1517878904351451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>0.28117932300678727</v>
-      </c>
-      <c r="C6">
-        <v>0.3038213660094049</v>
-      </c>
-      <c r="D6">
-        <v>0.29155030490730499</v>
-      </c>
-      <c r="E6">
-        <v>0.26633476133093831</v>
-      </c>
-      <c r="F6">
-        <v>0.25431757930790738</v>
-      </c>
-      <c r="G6">
-        <v>0.1797641632760644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>1.0219523177301051</v>
-      </c>
-      <c r="C7">
-        <v>1.495120945455747</v>
-      </c>
-      <c r="D7">
-        <v>1.7764108756864561</v>
-      </c>
-      <c r="E7">
-        <v>1.9644666916128981</v>
-      </c>
-      <c r="F7">
-        <v>2.1330018762000811</v>
-      </c>
-      <c r="G7">
-        <v>2.2647382398480582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.1051869864806684</v>
-      </c>
-      <c r="C8">
-        <v>0.1527935918909292</v>
-      </c>
-      <c r="D8">
-        <v>0.18481116523437149</v>
-      </c>
-      <c r="E8">
-        <v>0.20742773676623669</v>
-      </c>
-      <c r="F8">
-        <v>0.22256232256211411</v>
-      </c>
-      <c r="G8">
-        <v>0.22992672790789589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>9.8245351551857332E-2</v>
-      </c>
-      <c r="C9">
-        <v>0.15201673963283141</v>
-      </c>
-      <c r="D9">
-        <v>0.1872774002338165</v>
-      </c>
-      <c r="E9">
-        <v>0.20455651076824949</v>
-      </c>
-      <c r="F9">
-        <v>0.22213365277678501</v>
-      </c>
-      <c r="G9">
-        <v>0.22976503803190729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.210682903068767</v>
-      </c>
-      <c r="C10">
-        <v>0.31256785810953752</v>
-      </c>
-      <c r="D10">
-        <v>0.37461898438198682</v>
-      </c>
-      <c r="E10">
-        <v>0.42141319356573531</v>
-      </c>
-      <c r="F10">
-        <v>0.45676677768148233</v>
-      </c>
-      <c r="G10">
-        <v>0.48166405857396638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.13121265882287039</v>
-      </c>
-      <c r="C11">
-        <v>0.15206882788484</v>
-      </c>
-      <c r="D11">
-        <v>0.1761266715043622</v>
-      </c>
-      <c r="E11">
-        <v>0.1877291704750505</v>
-      </c>
-      <c r="F11">
-        <v>0.1897271941203367</v>
-      </c>
-      <c r="G11">
-        <v>0.17180396560569261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>3.4066695701907831E-2</v>
-      </c>
-      <c r="C12">
-        <v>5.2534501406709858E-2</v>
-      </c>
-      <c r="D12">
-        <v>6.6752686723907842E-2</v>
-      </c>
-      <c r="E12">
-        <v>7.9163099528389416E-2</v>
-      </c>
-      <c r="F12">
-        <v>8.9063589426906037E-2</v>
-      </c>
-      <c r="G12">
-        <v>9.6804577793057733E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>2.31901243164</v>
-      </c>
-      <c r="C13">
-        <v>3.2121306330270718</v>
-      </c>
-      <c r="D13">
-        <v>3.6860239096763441</v>
-      </c>
-      <c r="E13">
-        <v>4.0335337658123587</v>
-      </c>
-      <c r="F13">
-        <v>4.3297292995232404</v>
-      </c>
-      <c r="G13">
-        <v>4.5626489211574048</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
